--- a/katia/AULA 5.xlsx
+++ b/katia/AULA 5.xlsx
@@ -1,33 +1,144 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\NOTEBOOK\excel-2021-01\katia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="CLASSIFICAR" sheetId="10" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="11" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="bancodados">CLASSIFICAR!$A$1:$G$9</definedName>
+    <definedName name="filtros">CLASSIFICAR!$B$16:$C$17</definedName>
+    <definedName name="intervalo">#REF!</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>Depto.</t>
+  </si>
+  <si>
+    <t>Data de venda</t>
+  </si>
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Quant.</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Ótica</t>
+  </si>
+  <si>
+    <t>Óculos de sol</t>
+  </si>
+  <si>
+    <t>André Luiz</t>
+  </si>
+  <si>
+    <t>Informática</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>João Carlos</t>
+  </si>
+  <si>
+    <t>Teclado</t>
+  </si>
+  <si>
+    <t>José Augusto</t>
+  </si>
+  <si>
+    <t>Óculos de grau</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>BDSOMA</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>Soma</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Máx</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>0.0136938</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -42,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,17 +161,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -90,7 +274,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -102,7 +286,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -149,6 +333,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -184,6 +385,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -336,12 +554,629 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4">
+        <v>41288</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5">
+        <f t="shared" ref="G2:G9" si="0">E2*F2</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>41281</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3">
+        <v>150</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>41281</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3">
+        <v>150</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="e">
+        <f>2/0</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>41305</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3">
+        <v>450</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>41278</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>123</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>41296</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>250</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>41282</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3">
+        <v>150</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>41296</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>250</v>
+      </c>
+      <c r="F9" s="2">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D13" s="1" t="str">
+        <f>B2</f>
+        <v>Informática</v>
+      </c>
+      <c r="E13" s="3" t="str">
+        <f>D3</f>
+        <v>Teclado</v>
+      </c>
+      <c r="F13" s="2">
+        <f>DSUM(A1:G9,G1,D12:E13)</f>
+        <v>600</v>
+      </c>
+      <c r="G13" s="1">
+        <f>DSUM(A1:G9,F1,D12:E14)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2">
+        <f>DSUM(A1:G9,G1,D12:E14)</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8">
+        <f>DSUM(bancodados,$G1,filtros)</f>
+        <v>450</v>
+      </c>
+      <c r="F17" s="8">
+        <f>DAVERAGE(bancodados,G1,filtros)</f>
+        <v>450</v>
+      </c>
+      <c r="G17" s="8">
+        <f>DMAX(bancodados,$G1,filtros)</f>
+        <v>450</v>
+      </c>
+      <c r="H17" s="8">
+        <f>DMIN(bancodados,$G1,filtros)</f>
+        <v>450</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:G9">
+    <sortCondition sortBy="cellColor" ref="G2:G9" dxfId="3"/>
+  </sortState>
+  <conditionalFormatting sqref="G2:G9">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>2000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>1000</formula>
+      <formula>1999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>$B$2:$B$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
+      <formula1>$D$2:$D$9</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <f ca="1">RAND()</f>
+        <v>0.75340545017206773</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="9">
+        <v>17902018</v>
+      </c>
+      <c r="C3">
+        <f ca="1">RAND()*(100-1)+1</f>
+        <v>12.260147020729633</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002BB60FA2EE65A24B9D104BD39315838F" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2e6f8c7f855de0dc60d55b873736189c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7acc8066-3cf3-4aac-af17-d80797b891cd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="924a71d28bbc41cea01cf5fb07bc7b26" ns3:_="">
+    <xsd:import namespace="7acc8066-3cf3-4aac-af17-d80797b891cd"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7acc8066-3cf3-4aac-af17-d80797b891cd" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A03DDADF-020B-4F58-966C-D11EE6828A6F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6DC1A29-CBEA-4F08-995F-3F4AE2E9BAAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="7acc8066-3cf3-4aac-af17-d80797b891cd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF5C398-B798-46BB-8FFB-7D5261FEAD82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7acc8066-3cf3-4aac-af17-d80797b891cd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>